--- a/classfiers/bottleneck/welm/smote/bloated_welm_tanh_smote_results.xlsx
+++ b/classfiers/bottleneck/welm/smote/bloated_welm_tanh_smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.675</v>
+        <v>0.554726368159204</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9758454106280193</v>
+        <v>0.297979797979798</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7385740402193783</v>
+        <v>0.3973063973063973</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8133358213597064</v>
+        <v>0.5474846504258268</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6545454545454545</v>
+        <v>0.5985037406483791</v>
       </c>
       <c r="C3" t="n">
-        <v>0.672645739910314</v>
+        <v>0.4010416666666667</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6637168141592921</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6178731582319027</v>
+        <v>0.5049466706539075</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6545454545454545</v>
+        <v>0.5685785536159601</v>
       </c>
       <c r="C4" t="n">
-        <v>0.967741935483871</v>
+        <v>0.2436548223350254</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7342657342657343</v>
+        <v>0.3568773234200743</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7762703808559444</v>
+        <v>0.6348288046182941</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6560364464692483</v>
+        <v>0.5361596009975063</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3407079646017699</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5049180327868852</v>
+        <v>0.6804123711340206</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6564668245460967</v>
+        <v>0.6551724137931034</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5626423690205011</v>
+        <v>0.7980049875311721</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2787610619469026</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3962264150943396</v>
+        <v>0.8433268858800773</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5253126428185633</v>
+        <v>0.8621847896926856</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6405539449161317</v>
+        <v>0.6111946501904443</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6471404225141753</v>
+        <v>0.588535257396298</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6075402073051259</v>
+        <v>0.5533623733258917</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6778517655624426</v>
+        <v>0.6409234658367634</v>
       </c>
     </row>
   </sheetData>
